--- a/summer_2019_edited_csv/Copy of Dutton_2018_table2.3.xlsx
+++ b/summer_2019_edited_csv/Copy of Dutton_2018_table2.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\summer_2019_edited_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Summer2019\id test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83F77CD8-CCAC-4B7A-B8D3-C32115F49E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B906451-D206-455C-86EB-3362EECCCFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{40CBA9E8-F21D-4264-8702-ADE23842D7E9}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{40CBA9E8-F21D-4264-8702-ADE23842D7E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,16 +180,16 @@
     <t>Scaphirhynchusspp.</t>
   </si>
   <si>
-    <t>Scaphirhynchus_albus_471_843_mm_4_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.3</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_platorynchus_380_853_mm_20_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.3</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_albus_341_1003_mm_17_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.3</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_platorynchus_426_773_mm_20_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.3</t>
+    <t>Scaphirhynchus_platorynchus_426_773_mm_20_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.3</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_albus_471_843_mm_4_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.3</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_platorynchus_380_853_mm_20_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.3</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_albus_341_1003_mm_17_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.3</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,28 +587,28 @@
         <v>42</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
